--- a/database/search_street_database.xlsx
+++ b/database/search_street_database.xlsx
@@ -108,6 +108,9 @@
     <t>联系电话</t>
   </si>
   <si>
+    <t>varchar(15)</t>
+  </si>
+  <si>
     <t>province</t>
   </si>
   <si>
@@ -301,9 +304,6 @@
   </si>
   <si>
     <t>用户电话</t>
-  </si>
-  <si>
-    <t>varchar(15)</t>
   </si>
   <si>
     <t>用户头像</t>
@@ -469,8 +469,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -478,6 +478,28 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -512,13 +534,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -526,10 +541,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -565,7 +580,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -594,34 +617,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -634,7 +634,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -646,7 +670,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -658,7 +688,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -670,7 +730,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -682,13 +778,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -700,31 +796,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -736,85 +814,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -825,6 +825,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -852,17 +867,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -872,21 +883,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -915,13 +911,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -933,10 +933,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -945,133 +945,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1409,15 +1409,16 @@
   <sheetPr/>
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="16.25" customWidth="1"/>
-    <col min="2" max="2" width="21.25" customWidth="1"/>
+    <col min="2" max="2" width="30.625" customWidth="1"/>
     <col min="3" max="3" width="29" customWidth="1"/>
+    <col min="4" max="4" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -1462,6 +1463,9 @@
       <c r="D2" t="s">
         <v>11</v>
       </c>
+      <c r="E2">
+        <v>10</v>
+      </c>
       <c r="G2" t="s">
         <v>12</v>
       </c>
@@ -1469,7 +1473,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -1482,7 +1486,13 @@
       <c r="D3" t="s">
         <v>11</v>
       </c>
+      <c r="E3">
+        <v>10</v>
+      </c>
       <c r="H3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1568,7 +1578,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="E8">
         <v>15</v>
@@ -1579,13 +1589,13 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D9" t="s">
         <v>17</v>
@@ -1599,13 +1609,13 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D10" t="s">
         <v>17</v>
@@ -1619,13 +1629,13 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D11" t="s">
         <v>17</v>
@@ -1639,16 +1649,16 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E12">
         <v>256</v>
@@ -1659,16 +1669,16 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" t="s">
         <v>37</v>
-      </c>
-      <c r="B13" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" t="s">
-        <v>36</v>
       </c>
       <c r="E13">
         <v>256</v>
@@ -1676,13 +1686,13 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D14" t="s">
         <v>11</v>
@@ -1696,41 +1706,41 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" t="s">
         <v>44</v>
-      </c>
-      <c r="B16" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" t="s">
-        <v>45</v>
-      </c>
-      <c r="D16" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
@@ -1744,16 +1754,16 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I18" t="s">
         <v>12</v>
@@ -1761,16 +1771,16 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" t="s">
         <v>51</v>
-      </c>
-      <c r="B19" t="s">
-        <v>51</v>
-      </c>
-      <c r="C19" t="s">
-        <v>52</v>
-      </c>
-      <c r="D19" t="s">
-        <v>50</v>
       </c>
       <c r="I19" t="s">
         <v>12</v>
@@ -1778,13 +1788,13 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D20" t="s">
         <v>11</v>
@@ -1798,13 +1808,13 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B21" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C21" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D21" t="s">
         <v>23</v>
@@ -1818,24 +1828,24 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B23" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1890,13 +1900,13 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D2" t="s">
         <v>11</v>
@@ -1959,16 +1969,16 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E5">
         <v>500</v>
@@ -1976,13 +1986,13 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D6" t="s">
         <v>11</v>
@@ -1999,13 +2009,13 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D7" t="s">
         <v>11</v>
@@ -2073,13 +2083,13 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D2" t="s">
         <v>11</v>
@@ -2096,13 +2106,13 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D3" t="s">
         <v>11</v>
@@ -2142,13 +2152,13 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D5" t="s">
         <v>11</v>
@@ -2162,13 +2172,13 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D6" t="s">
         <v>11</v>
@@ -2182,30 +2192,30 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -2262,13 +2272,13 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D2" t="s">
         <v>11</v>
@@ -2308,13 +2318,13 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
@@ -2328,13 +2338,13 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D5" t="s">
         <v>11</v>
@@ -2348,16 +2358,16 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E6">
         <v>256</v>
@@ -2365,13 +2375,13 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -2382,13 +2392,13 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -2409,7 +2419,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2478,16 +2488,16 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E3" s="2">
         <v>32</v>
@@ -2505,10 +2515,10 @@
         <v>26</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>93</v>
+        <v>28</v>
       </c>
       <c r="E4" s="2">
         <v>15</v>
@@ -2520,10 +2530,10 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>94</v>
@@ -2648,10 +2658,10 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>106</v>
@@ -2671,16 +2681,16 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>107</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -2690,16 +2700,16 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>108</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -2719,7 +2729,7 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2771,6 +2781,9 @@
       <c r="D2" t="s">
         <v>11</v>
       </c>
+      <c r="E2">
+        <v>10</v>
+      </c>
       <c r="G2" t="s">
         <v>12</v>
       </c>
@@ -2791,6 +2804,9 @@
       <c r="D3" t="s">
         <v>11</v>
       </c>
+      <c r="E3">
+        <v>10</v>
+      </c>
       <c r="H3" t="s">
         <v>12</v>
       </c>
@@ -2826,7 +2842,7 @@
         <v>114</v>
       </c>
       <c r="D5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E5">
         <v>32</v>
@@ -2866,7 +2882,7 @@
         <v>118</v>
       </c>
       <c r="D7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E7">
         <v>512</v>
@@ -2877,16 +2893,16 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E8">
         <v>32</v>
@@ -2897,16 +2913,16 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E9">
         <v>32</v>
@@ -2917,16 +2933,16 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E10">
         <v>32</v>
@@ -2937,13 +2953,13 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D11" t="s">
         <v>119</v>
@@ -2997,16 +3013,16 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C14" t="s">
         <v>123</v>
       </c>
       <c r="D14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I14" t="s">
         <v>12</v>
@@ -3014,16 +3030,16 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C15" t="s">
         <v>124</v>
       </c>
       <c r="D15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I15" t="s">
         <v>12</v>
@@ -3040,7 +3056,7 @@
         <v>126</v>
       </c>
       <c r="D16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I16" t="s">
         <v>12</v>
@@ -3057,7 +3073,7 @@
         <v>128</v>
       </c>
       <c r="D17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I17" t="s">
         <v>12</v>
@@ -3385,13 +3401,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -3494,10 +3510,10 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D4" t="s">
         <v>23</v>
@@ -3528,24 +3544,24 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/database/search_street_database.xlsx
+++ b/database/search_street_database.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14295" windowHeight="12630"/>
+    <workbookView windowWidth="13751" windowHeight="5280" firstSheet="2" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="tb_shop" sheetId="1" r:id="rId1"/>
@@ -16,13 +16,14 @@
     <sheet name="tb_help" sheetId="7" r:id="rId7"/>
     <sheet name="tb_wechat_auth" sheetId="8" r:id="rId8"/>
     <sheet name="tb_local_auth" sheetId="9" r:id="rId9"/>
+    <sheet name="tb_shop_img" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153">
   <si>
     <t>Name</t>
   </si>
@@ -156,51 +157,54 @@
     <t>每天开始营业的时间</t>
   </si>
   <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>close_time</t>
+  </si>
+  <si>
+    <t>每天结束营业的时间</t>
+  </si>
+  <si>
+    <t>profile_img</t>
+  </si>
+  <si>
+    <t>店铺头像</t>
+  </si>
+  <si>
+    <t>latitude</t>
+  </si>
+  <si>
+    <t>定位纬度</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>longitude</t>
+  </si>
+  <si>
+    <t>定位经度</t>
+  </si>
+  <si>
+    <t>enable_status</t>
+  </si>
+  <si>
+    <t>许可状态（0审核中，1许可，2不许可）</t>
+  </si>
+  <si>
+    <t>business_scope</t>
+  </si>
+  <si>
+    <t>营业范围</t>
+  </si>
+  <si>
+    <t>create_time</t>
+  </si>
+  <si>
     <t>datetime</t>
   </si>
   <si>
-    <t>close_time</t>
-  </si>
-  <si>
-    <t>每天结束营业的时间</t>
-  </si>
-  <si>
-    <t>profile_img</t>
-  </si>
-  <si>
-    <t>店铺头像</t>
-  </si>
-  <si>
-    <t>coordinate_x</t>
-  </si>
-  <si>
-    <t>定位纬度</t>
-  </si>
-  <si>
-    <t>float</t>
-  </si>
-  <si>
-    <t>coordinate_y</t>
-  </si>
-  <si>
-    <t>定位经度</t>
-  </si>
-  <si>
-    <t>enable_status</t>
-  </si>
-  <si>
-    <t>许可状态（0审核中，1许可，2不许可）</t>
-  </si>
-  <si>
-    <t>business_scope</t>
-  </si>
-  <si>
-    <t>营业范围</t>
-  </si>
-  <si>
-    <t>create_time</t>
-  </si>
-  <si>
     <t>last_edit_time</t>
   </si>
   <si>
@@ -460,6 +464,24 @@
   </si>
   <si>
     <t>pass_word</t>
+  </si>
+  <si>
+    <t>shop_img_id</t>
+  </si>
+  <si>
+    <t>店铺图片ID</t>
+  </si>
+  <si>
+    <t>img_addr</t>
+  </si>
+  <si>
+    <t>图片地址</t>
+  </si>
+  <si>
+    <t>varchar</t>
+  </si>
+  <si>
+    <t>店铺ID</t>
   </si>
 </sst>
 </file>
@@ -469,8 +491,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -482,77 +504,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -573,7 +527,66 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -594,34 +607,43 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -634,25 +656,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -670,13 +680,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -694,7 +728,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -706,115 +836,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -829,6 +851,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -839,50 +876,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -911,17 +904,46 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -933,10 +955,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -945,133 +967,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1409,14 +1431,14 @@
   <sheetPr/>
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="16.25" customWidth="1"/>
-    <col min="2" max="2" width="30.625" customWidth="1"/>
+    <col min="2" max="2" width="30.6296296296296" customWidth="1"/>
     <col min="3" max="3" width="29" customWidth="1"/>
     <col min="4" max="4" width="18.5" customWidth="1"/>
   </cols>
@@ -1834,18 +1856,146 @@
         <v>58</v>
       </c>
       <c r="D22" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
+        <v>60</v>
+      </c>
+      <c r="B23" t="s">
+        <v>60</v>
+      </c>
+      <c r="D23" t="s">
         <v>59</v>
       </c>
-      <c r="B23" t="s">
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="4"/>
+  <cols>
+    <col min="1" max="1" width="22.1111111111111" customWidth="1"/>
+    <col min="3" max="3" width="18.1111111111111" customWidth="1"/>
+    <col min="6" max="6" width="8.44444444444444" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2">
+        <v>20</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D3" t="s">
+        <v>151</v>
+      </c>
+      <c r="E3">
+        <v>1024</v>
+      </c>
+      <c r="I3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D4" t="s">
         <v>59</v>
       </c>
-      <c r="D23" t="s">
-        <v>44</v>
+      <c r="E4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>152</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1863,7 +2013,7 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="6"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="19.25" customWidth="1"/>
@@ -1900,13 +2050,13 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D2" t="s">
         <v>11</v>
@@ -1969,16 +2119,16 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E5">
         <v>500</v>
@@ -1986,13 +2136,13 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D6" t="s">
         <v>11</v>
@@ -2009,13 +2159,13 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D7" t="s">
         <v>11</v>
@@ -2045,11 +2195,11 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7"/>
   <cols>
-    <col min="1" max="1" width="17.125" customWidth="1"/>
+    <col min="1" max="1" width="17.1296296296296" customWidth="1"/>
     <col min="2" max="2" width="21.5" customWidth="1"/>
-    <col min="3" max="3" width="14.375" customWidth="1"/>
+    <col min="3" max="3" width="14.3796296296296" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -2083,13 +2233,13 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D2" t="s">
         <v>11</v>
@@ -2106,13 +2256,13 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D3" t="s">
         <v>11</v>
@@ -2152,13 +2302,13 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D5" t="s">
         <v>11</v>
@@ -2172,13 +2322,13 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D6" t="s">
         <v>11</v>
@@ -2198,24 +2348,24 @@
         <v>58</v>
       </c>
       <c r="C7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D7" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D8" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -2233,12 +2383,12 @@
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="17.25" customWidth="1"/>
-    <col min="3" max="3" width="15.375" customWidth="1"/>
-    <col min="4" max="4" width="16.625" customWidth="1"/>
+    <col min="3" max="3" width="15.3796296296296" customWidth="1"/>
+    <col min="4" max="4" width="16.6296296296296" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -2272,13 +2422,13 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D2" t="s">
         <v>11</v>
@@ -2318,13 +2468,13 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
@@ -2338,13 +2488,13 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D5" t="s">
         <v>11</v>
@@ -2358,13 +2508,13 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D6" t="s">
         <v>37</v>
@@ -2375,13 +2525,13 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -2392,13 +2542,13 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -2422,13 +2572,13 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="24.25" customWidth="1"/>
-    <col min="2" max="2" width="19.625" customWidth="1"/>
-    <col min="3" max="3" width="25.375" customWidth="1"/>
-    <col min="4" max="4" width="17.375" customWidth="1"/>
-    <col min="5" max="5" width="23.375" customWidth="1"/>
+    <col min="2" max="2" width="19.6296296296296" customWidth="1"/>
+    <col min="3" max="3" width="25.3796296296296" customWidth="1"/>
+    <col min="4" max="4" width="17.3796296296296" customWidth="1"/>
+    <col min="5" max="5" width="23.3796296296296" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2488,16 +2638,16 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E3" s="2">
         <v>32</v>
@@ -2515,7 +2665,7 @@
         <v>26</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>28</v>
@@ -2536,7 +2686,7 @@
         <v>47</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>20</v>
@@ -2551,13 +2701,13 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>11</v>
@@ -2572,16 +2722,16 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E7" s="2">
         <v>2</v>
@@ -2593,13 +2743,13 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>11</v>
@@ -2614,13 +2764,13 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>20</v>
@@ -2635,13 +2785,13 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>11</v>
@@ -2664,7 +2814,7 @@
         <v>54</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>11</v>
@@ -2687,10 +2837,10 @@
         <v>58</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -2700,16 +2850,16 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -2729,14 +2879,14 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="13.625" customWidth="1"/>
-    <col min="2" max="2" width="16.875" customWidth="1"/>
-    <col min="3" max="3" width="21.375" customWidth="1"/>
+    <col min="1" max="1" width="13.6296296296296" customWidth="1"/>
+    <col min="2" max="2" width="16.8796296296296" customWidth="1"/>
+    <col min="3" max="3" width="21.3796296296296" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -2770,13 +2920,13 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D2" t="s">
         <v>11</v>
@@ -2816,13 +2966,13 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D4" t="s">
         <v>20</v>
@@ -2833,16 +2983,16 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E5">
         <v>32</v>
@@ -2853,13 +3003,13 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D6" t="s">
         <v>23</v>
@@ -2873,16 +3023,16 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E7">
         <v>512</v>
@@ -2902,7 +3052,7 @@
         <v>30</v>
       </c>
       <c r="D8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E8">
         <v>32</v>
@@ -2922,7 +3072,7 @@
         <v>32</v>
       </c>
       <c r="D9" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E9">
         <v>32</v>
@@ -2942,7 +3092,7 @@
         <v>34</v>
       </c>
       <c r="D10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E10">
         <v>32</v>
@@ -2962,7 +3112,7 @@
         <v>36</v>
       </c>
       <c r="D11" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E11">
         <v>256</v>
@@ -2973,13 +3123,13 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B12" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C12" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D12" t="s">
         <v>11</v>
@@ -2993,13 +3143,13 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B13" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D13" t="s">
         <v>11</v>
@@ -3019,7 +3169,7 @@
         <v>49</v>
       </c>
       <c r="C14" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D14" t="s">
         <v>51</v>
@@ -3036,7 +3186,7 @@
         <v>52</v>
       </c>
       <c r="C15" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D15" t="s">
         <v>51</v>
@@ -3047,16 +3197,16 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B16" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C16" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D16" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="I16" t="s">
         <v>12</v>
@@ -3064,16 +3214,16 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B17" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C17" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D17" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="I17" t="s">
         <v>12</v>
@@ -3094,13 +3244,13 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="16.875" customWidth="1"/>
-    <col min="2" max="2" width="18.375" customWidth="1"/>
+    <col min="1" max="1" width="16.8796296296296" customWidth="1"/>
+    <col min="2" max="2" width="18.3796296296296" customWidth="1"/>
     <col min="3" max="3" width="21.25" customWidth="1"/>
     <col min="4" max="4" width="19.75" customWidth="1"/>
-    <col min="5" max="5" width="15.125" customWidth="1"/>
+    <col min="5" max="5" width="15.1296296296296" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -3134,13 +3284,13 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D2" t="s">
         <v>11</v>
@@ -3157,13 +3307,13 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D3" t="s">
         <v>11</v>
@@ -3203,13 +3353,13 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B5" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C5" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D5" t="s">
         <v>11</v>
@@ -3223,13 +3373,13 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D6" t="s">
         <v>11</v>
@@ -3240,13 +3390,13 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D7" t="s">
         <v>11</v>
@@ -3257,13 +3407,13 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B8" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C8" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D8" t="s">
         <v>11</v>
@@ -3274,13 +3424,13 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B9" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C9" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D9" t="s">
         <v>11</v>
@@ -3304,7 +3454,7 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4"/>
   <cols>
     <col min="4" max="4" width="17.75" customWidth="1"/>
     <col min="5" max="5" width="18.75" customWidth="1"/>
@@ -3341,10 +3491,10 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D2" t="s">
         <v>11</v>
@@ -3361,10 +3511,10 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C3" t="s">
         <v>14</v>
@@ -3384,10 +3534,10 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B4" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D4" t="s">
         <v>20</v>
@@ -3407,7 +3557,7 @@
         <v>58</v>
       </c>
       <c r="D5" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -3422,15 +3572,15 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A1" sqref="A1:I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="6"/>
   <cols>
     <col min="1" max="1" width="15.5" customWidth="1"/>
-    <col min="2" max="2" width="19.125" customWidth="1"/>
+    <col min="2" max="2" width="19.1296296296296" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="18.375" customWidth="1"/>
+    <col min="4" max="4" width="18.3796296296296" customWidth="1"/>
     <col min="5" max="5" width="14.75" customWidth="1"/>
     <col min="6" max="6" width="12.25" customWidth="1"/>
     <col min="7" max="7" width="10.5" customWidth="1"/>
@@ -3467,10 +3617,10 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D2" t="s">
         <v>11</v>
@@ -3487,10 +3637,10 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C3" t="s">
         <v>14</v>
@@ -3510,10 +3660,10 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D4" t="s">
         <v>23</v>
@@ -3527,10 +3677,10 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B5" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
@@ -3550,18 +3700,18 @@
         <v>58</v>
       </c>
       <c r="D6" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" t="s">
         <v>59</v>
-      </c>
-      <c r="B7" t="s">
-        <v>59</v>
-      </c>
-      <c r="D7" t="s">
-        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/database/search_street_database.xlsx
+++ b/database/search_street_database.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13751" windowHeight="5280" firstSheet="2" activeTab="9"/>
+    <workbookView windowWidth="22943" windowHeight="9947" firstSheet="4" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="tb_shop" sheetId="1" r:id="rId1"/>
@@ -17,13 +17,14 @@
     <sheet name="tb_wechat_auth" sheetId="8" r:id="rId8"/>
     <sheet name="tb_local_auth" sheetId="9" r:id="rId9"/>
     <sheet name="tb_shop_img" sheetId="10" r:id="rId10"/>
+    <sheet name="tb_appeal_img" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156">
   <si>
     <t>Name</t>
   </si>
@@ -482,6 +483,15 @@
   </si>
   <si>
     <t>店铺ID</t>
+  </si>
+  <si>
+    <t>appeal_img_id</t>
+  </si>
+  <si>
+    <t>求助图片ID</t>
+  </si>
+  <si>
+    <t>求助ID</t>
   </si>
 </sst>
 </file>
@@ -490,9 +500,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -504,30 +514,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -549,6 +559,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -558,6 +576,46 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -584,56 +642,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -656,7 +666,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -675,6 +709,54 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -746,78 +828,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -850,6 +860,45 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -861,6 +910,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -888,65 +957,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -955,10 +965,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -967,133 +977,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1882,7 +1892,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="4"/>
@@ -1981,7 +1991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -1996,6 +2006,135 @@
       </c>
       <c r="E5">
         <v>10</v>
+      </c>
+      <c r="I5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="4"/>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2">
+        <v>20</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D3" t="s">
+        <v>151</v>
+      </c>
+      <c r="E3">
+        <v>1024</v>
+      </c>
+      <c r="I3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C5" t="s">
+        <v>155</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5">
+        <v>10</v>
+      </c>
+      <c r="I5" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/database/search_street_database.xlsx
+++ b/database/search_street_database.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22943" windowHeight="9947" firstSheet="4" activeTab="9"/>
+    <workbookView windowWidth="22943" windowHeight="9947"/>
   </bookViews>
   <sheets>
     <sheet name="tb_shop" sheetId="1" r:id="rId1"/>
@@ -179,7 +179,7 @@
     <t>定位纬度</t>
   </si>
   <si>
-    <t>float</t>
+    <t>double</t>
   </si>
   <si>
     <t>longitude</t>
@@ -500,9 +500,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -1441,8 +1441,8 @@
   <sheetPr/>
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1891,7 +1891,7 @@
   <sheetPr/>
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
@@ -3018,7 +3018,7 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>

--- a/database/search_street_database.xlsx
+++ b/database/search_street_database.xlsx
@@ -4,15 +4,15 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22943" windowHeight="9947"/>
+    <workbookView windowWidth="11340" windowHeight="9084" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="tb_shop" sheetId="1" r:id="rId1"/>
     <sheet name="tb_shop_comment" sheetId="2" r:id="rId2"/>
     <sheet name="tb_order" sheetId="3" r:id="rId3"/>
     <sheet name="tb_service" sheetId="4" r:id="rId4"/>
-    <sheet name="tb_person_info" sheetId="5" r:id="rId5"/>
-    <sheet name="tb_appeal" sheetId="6" r:id="rId6"/>
+    <sheet name="tb_appeal" sheetId="6" r:id="rId5"/>
+    <sheet name="tb_person_info" sheetId="5" r:id="rId6"/>
     <sheet name="tb_help" sheetId="7" r:id="rId7"/>
     <sheet name="tb_wechat_auth" sheetId="8" r:id="rId8"/>
     <sheet name="tb_local_auth" sheetId="9" r:id="rId9"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="162">
   <si>
     <t>Name</t>
   </si>
@@ -41,201 +41,213 @@
     <t>Length</t>
   </si>
   <si>
+    <t>Default Value</t>
+  </si>
+  <si>
+    <t>Nullable</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>shop_id</t>
+  </si>
+  <si>
+    <t>店铺id</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>user_id</t>
+  </si>
+  <si>
+    <t>用户id</t>
+  </si>
+  <si>
+    <t>shop_name</t>
+  </si>
+  <si>
+    <t>店铺名</t>
+  </si>
+  <si>
+    <t>varchar(64)</t>
+  </si>
+  <si>
+    <t>shop_img</t>
+  </si>
+  <si>
+    <t>店铺相关图片集</t>
+  </si>
+  <si>
+    <t>varchar(1024)</t>
+  </si>
+  <si>
+    <t>business_license_code</t>
+  </si>
+  <si>
+    <t>营业执照编码</t>
+  </si>
+  <si>
+    <t>varchar(128)</t>
+  </si>
+  <si>
+    <t>business_license_img</t>
+  </si>
+  <si>
+    <t>营业执照相片</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>联系电话</t>
+  </si>
+  <si>
+    <t>varchar(15)</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>province</t>
+  </si>
+  <si>
+    <t>省份</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>城市</t>
+  </si>
+  <si>
+    <t>district</t>
+  </si>
+  <si>
+    <t>地区</t>
+  </si>
+  <si>
+    <t>full_address</t>
+  </si>
+  <si>
+    <t>详细地址</t>
+  </si>
+  <si>
+    <t>varchar(256)</t>
+  </si>
+  <si>
+    <t>shop_more_info</t>
+  </si>
+  <si>
+    <t>更多信息</t>
+  </si>
+  <si>
+    <t>is_mobile</t>
+  </si>
+  <si>
+    <t>是否移动商铺（1是,0否）</t>
+  </si>
+  <si>
+    <t>open_time</t>
+  </si>
+  <si>
+    <t>每天开始营业的时间</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>close_time</t>
+  </si>
+  <si>
+    <t>每天结束营业的时间</t>
+  </si>
+  <si>
+    <t>profile_img</t>
+  </si>
+  <si>
+    <t>店铺头像</t>
+  </si>
+  <si>
+    <t>latitude</t>
+  </si>
+  <si>
+    <t>定位纬度</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>longitude</t>
+  </si>
+  <si>
+    <t>定位经度</t>
+  </si>
+  <si>
+    <t>enable_status</t>
+  </si>
+  <si>
+    <t>许可状态（0审核中，1许可，2不许可）</t>
+  </si>
+  <si>
+    <t>business_scope</t>
+  </si>
+  <si>
+    <t>营业范围</t>
+  </si>
+  <si>
+    <t>create_time</t>
+  </si>
+  <si>
+    <t>datetime</t>
+  </si>
+  <si>
+    <t>last_edit_time</t>
+  </si>
+  <si>
+    <t>shop_comment_id</t>
+  </si>
+  <si>
+    <t>店铺评论id</t>
+  </si>
+  <si>
+    <t>comment_content</t>
+  </si>
+  <si>
+    <t>评论内容</t>
+  </si>
+  <si>
+    <t>varchar(512)</t>
+  </si>
+  <si>
+    <t>service_rating</t>
+  </si>
+  <si>
+    <t>服务分</t>
+  </si>
+  <si>
+    <t>star_rating</t>
+  </si>
+  <si>
+    <t>星级评分</t>
+  </si>
+  <si>
     <t>Precision</t>
   </si>
   <si>
     <t>P</t>
   </si>
   <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>shop_id</t>
-  </si>
-  <si>
-    <t>店铺id</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>user_id</t>
-  </si>
-  <si>
-    <t>用户id</t>
-  </si>
-  <si>
-    <t>shop_name</t>
-  </si>
-  <si>
-    <t>店铺名</t>
-  </si>
-  <si>
-    <t>varchar(64)</t>
-  </si>
-  <si>
-    <t>shop_img</t>
-  </si>
-  <si>
-    <t>店铺相关图片集</t>
-  </si>
-  <si>
-    <t>varchar(1024)</t>
-  </si>
-  <si>
-    <t>business_license_code</t>
-  </si>
-  <si>
-    <t>营业执照编码</t>
-  </si>
-  <si>
-    <t>varchar(128)</t>
-  </si>
-  <si>
-    <t>business_license_img</t>
-  </si>
-  <si>
-    <t>营业执照相片</t>
-  </si>
-  <si>
-    <t>phone</t>
-  </si>
-  <si>
-    <t>联系电话</t>
-  </si>
-  <si>
-    <t>varchar(15)</t>
-  </si>
-  <si>
-    <t>province</t>
-  </si>
-  <si>
-    <t>省份</t>
-  </si>
-  <si>
-    <t>city</t>
-  </si>
-  <si>
-    <t>城市</t>
-  </si>
-  <si>
-    <t>district</t>
-  </si>
-  <si>
-    <t>地区</t>
-  </si>
-  <si>
-    <t>full_address</t>
-  </si>
-  <si>
-    <t>详细地址</t>
-  </si>
-  <si>
-    <t>varchar(256)</t>
-  </si>
-  <si>
-    <t>shop_more_info</t>
-  </si>
-  <si>
-    <t>更多信息</t>
-  </si>
-  <si>
-    <t>is_mobile</t>
-  </si>
-  <si>
-    <t>是否移动商铺（1是,0否）</t>
-  </si>
-  <si>
-    <t>open_time</t>
-  </si>
-  <si>
-    <t>每天开始营业的时间</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>close_time</t>
-  </si>
-  <si>
-    <t>每天结束营业的时间</t>
-  </si>
-  <si>
-    <t>profile_img</t>
-  </si>
-  <si>
-    <t>店铺头像</t>
-  </si>
-  <si>
-    <t>latitude</t>
-  </si>
-  <si>
-    <t>定位纬度</t>
-  </si>
-  <si>
-    <t>double</t>
-  </si>
-  <si>
-    <t>longitude</t>
-  </si>
-  <si>
-    <t>定位经度</t>
-  </si>
-  <si>
-    <t>enable_status</t>
-  </si>
-  <si>
-    <t>许可状态（0审核中，1许可，2不许可）</t>
-  </si>
-  <si>
-    <t>business_scope</t>
-  </si>
-  <si>
-    <t>营业范围</t>
-  </si>
-  <si>
-    <t>create_time</t>
-  </si>
-  <si>
-    <t>datetime</t>
-  </si>
-  <si>
-    <t>last_edit_time</t>
-  </si>
-  <si>
-    <t>shop_comment_id</t>
-  </si>
-  <si>
-    <t>店铺评论id</t>
-  </si>
-  <si>
-    <t>comment_content</t>
-  </si>
-  <si>
-    <t>评论内容</t>
-  </si>
-  <si>
-    <t>varchar(512)</t>
-  </si>
-  <si>
-    <t>service_rating</t>
-  </si>
-  <si>
-    <t>服务分</t>
-  </si>
-  <si>
-    <t>star_rating</t>
-  </si>
-  <si>
-    <t>星级评分</t>
-  </si>
-  <si>
     <t>order_id</t>
   </si>
   <si>
@@ -257,7 +269,7 @@
     <t>order_status</t>
   </si>
   <si>
-    <t>订单状态（0已下单，1完成订单，2已取消订单,3已删除）</t>
+    <t>订单状态（0已下单，1待评价，2已完成,3已取消，4已回复）</t>
   </si>
   <si>
     <t>订单创建时间</t>
@@ -266,7 +278,7 @@
     <t>over_time</t>
   </si>
   <si>
-    <t>订单结束时间</t>
+    <t>订单完成时间</t>
   </si>
   <si>
     <t>service_name</t>
@@ -275,6 +287,12 @@
     <t>服务名称</t>
   </si>
   <si>
+    <t>order_price</t>
+  </si>
+  <si>
+    <t>订单价格</t>
+  </si>
+  <si>
     <t>service_price</t>
   </si>
   <si>
@@ -299,24 +317,84 @@
     <t>服务相关图片</t>
   </si>
   <si>
+    <t>appeal_id</t>
+  </si>
+  <si>
+    <t>求助id</t>
+  </si>
+  <si>
+    <t>appeal_img</t>
+  </si>
+  <si>
+    <t>求助相关图片</t>
+  </si>
+  <si>
+    <t>appeal_title</t>
+  </si>
+  <si>
+    <t>求助标题</t>
+  </si>
+  <si>
+    <t>varchar(32)</t>
+  </si>
+  <si>
+    <t>appeal_desc</t>
+  </si>
+  <si>
+    <t>求助描述</t>
+  </si>
+  <si>
+    <t>appeal_content</t>
+  </si>
+  <si>
+    <t>求助内容</t>
+  </si>
+  <si>
+    <t>varchar(200)</t>
+  </si>
+  <si>
+    <t>sou_coin</t>
+  </si>
+  <si>
+    <t>回报的搜币</t>
+  </si>
+  <si>
+    <t>appeal_status</t>
+  </si>
+  <si>
+    <t>求助的状态（0不确定帮助对象，1已确定帮助对象，2已完成,3已删除）</t>
+  </si>
+  <si>
+    <t>定位的纬度</t>
+  </si>
+  <si>
+    <t>定位的经度</t>
+  </si>
+  <si>
+    <t>start_time</t>
+  </si>
+  <si>
+    <t>开始时间</t>
+  </si>
+  <si>
+    <t>end_time</t>
+  </si>
+  <si>
+    <t>结束时间</t>
+  </si>
+  <si>
     <t>user_name</t>
   </si>
   <si>
     <t>用户名</t>
   </si>
   <si>
-    <t>varchar(32)</t>
-  </si>
-  <si>
     <t>用户电话</t>
   </si>
   <si>
     <t>用户头像</t>
   </si>
   <si>
-    <t>sou_coin</t>
-  </si>
-  <si>
     <t>搜币</t>
   </si>
   <si>
@@ -354,66 +432,6 @@
   </si>
   <si>
     <t>修改时间</t>
-  </si>
-  <si>
-    <t>appeal_id</t>
-  </si>
-  <si>
-    <t>求助id</t>
-  </si>
-  <si>
-    <t>appeal_img</t>
-  </si>
-  <si>
-    <t>求助相关图片</t>
-  </si>
-  <si>
-    <t>appeal_title</t>
-  </si>
-  <si>
-    <t>求助标题</t>
-  </si>
-  <si>
-    <t>appeal_desc</t>
-  </si>
-  <si>
-    <t>求助描述</t>
-  </si>
-  <si>
-    <t>appeal_content</t>
-  </si>
-  <si>
-    <t>求助内容</t>
-  </si>
-  <si>
-    <t>varchar(200)</t>
-  </si>
-  <si>
-    <t>回报的搜币</t>
-  </si>
-  <si>
-    <t>appeal_status</t>
-  </si>
-  <si>
-    <t>求助的状态（0不确定帮助对象，1已确定帮助对象，2已完成,3已删除）</t>
-  </si>
-  <si>
-    <t>定位的纬度</t>
-  </si>
-  <si>
-    <t>定位的经度</t>
-  </si>
-  <si>
-    <t>start_time</t>
-  </si>
-  <si>
-    <t>开始时间</t>
-  </si>
-  <si>
-    <t>end_time</t>
-  </si>
-  <si>
-    <t>结束时间</t>
   </si>
   <si>
     <t>help_id</t>
@@ -510,6 +528,13 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -543,27 +568,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -575,7 +584,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -583,25 +592,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -622,13 +615,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -636,12 +622,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -651,7 +646,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -666,7 +684,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -678,13 +696,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -696,7 +714,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -720,7 +750,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -732,19 +840,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -756,43 +852,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -805,48 +865,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -885,21 +903,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -916,11 +919,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -951,9 +952,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -965,10 +983,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -977,133 +995,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1441,16 +1459,17 @@
   <sheetPr/>
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F$1:G$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="16.25" customWidth="1"/>
     <col min="2" max="2" width="30.6296296296296" customWidth="1"/>
-    <col min="3" max="3" width="29" customWidth="1"/>
+    <col min="3" max="3" width="40" customWidth="1"/>
     <col min="4" max="4" width="18.5" customWidth="1"/>
+    <col min="6" max="7" width="15.2222222222222" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -1502,18 +1521,18 @@
         <v>12</v>
       </c>
       <c r="I2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
         <v>11</v>
@@ -1521,196 +1540,226 @@
       <c r="E3">
         <v>10</v>
       </c>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
       <c r="H3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E4">
         <v>64</v>
       </c>
+      <c r="G4" t="s">
+        <v>12</v>
+      </c>
       <c r="I4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5" s="1">
         <v>1024</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>128</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7" s="1">
         <v>1024</v>
       </c>
+      <c r="G7" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E8">
         <v>15</v>
       </c>
+      <c r="G8" t="s">
+        <v>30</v>
+      </c>
       <c r="I8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E9">
         <v>64</v>
       </c>
+      <c r="G9" t="s">
+        <v>30</v>
+      </c>
       <c r="I9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E10">
         <v>64</v>
       </c>
+      <c r="G10" t="s">
+        <v>12</v>
+      </c>
       <c r="I10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E11">
         <v>64</v>
       </c>
       <c r="I11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D12" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E12">
         <v>256</v>
       </c>
       <c r="I12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" t="s">
         <v>39</v>
-      </c>
-      <c r="D13" t="s">
-        <v>37</v>
       </c>
       <c r="E13">
         <v>256</v>
@@ -1718,13 +1767,13 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C14" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D14" t="s">
         <v>11</v>
@@ -1733,100 +1782,100 @@
         <v>2</v>
       </c>
       <c r="I14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B15" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C15" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D15" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B16" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" t="s">
         <v>46</v>
-      </c>
-      <c r="D16" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B17" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C17" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E17" s="1">
         <v>1024</v>
       </c>
       <c r="I17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B18" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C18" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D18" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B19" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" t="s">
         <v>53</v>
       </c>
-      <c r="D19" t="s">
-        <v>51</v>
-      </c>
       <c r="I19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B20" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C20" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D20" t="s">
         <v>11</v>
@@ -1835,49 +1884,49 @@
         <v>2</v>
       </c>
       <c r="I20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B21" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C21" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E21">
         <v>128</v>
       </c>
       <c r="I21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B22" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D22" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B23" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D23" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1919,10 +1968,10 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>72</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
+        <v>73</v>
       </c>
       <c r="H1" t="s">
         <v>7</v>
@@ -1933,13 +1982,13 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="B2" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="C2" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="D2" t="s">
         <v>11</v>
@@ -1948,44 +1997,44 @@
         <v>20</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="B3" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="C3" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="D3" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="E3">
         <v>1024</v>
       </c>
       <c r="I3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C4" t="s">
-        <v>108</v>
+        <v>134</v>
       </c>
       <c r="D4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1999,7 +2048,7 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="D5" t="s">
         <v>11</v>
@@ -2008,7 +2057,7 @@
         <v>10</v>
       </c>
       <c r="I5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -2045,10 +2094,10 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>72</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
+        <v>73</v>
       </c>
       <c r="H1" t="s">
         <v>7</v>
@@ -2059,13 +2108,13 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="B2" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="C2" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="D2" t="s">
         <v>11</v>
@@ -2074,44 +2123,44 @@
         <v>20</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="B3" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="C3" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="D3" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="E3">
         <v>1024</v>
       </c>
       <c r="I3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C4" t="s">
-        <v>108</v>
+        <v>134</v>
       </c>
       <c r="D4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -2119,13 +2168,13 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="B5" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="C5" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="D5" t="s">
         <v>11</v>
@@ -2134,7 +2183,7 @@
         <v>10</v>
       </c>
       <c r="I5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -2146,16 +2195,17 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="F1" sqref="F$1:G$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="19.25" customWidth="1"/>
+    <col min="6" max="7" width="15.2222222222222" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -2189,13 +2239,13 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D2" t="s">
         <v>11</v>
@@ -2207,7 +2257,7 @@
         <v>12</v>
       </c>
       <c r="I2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -2226,22 +2276,25 @@
       <c r="E3">
         <v>10</v>
       </c>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
       <c r="H3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
@@ -2249,39 +2302,48 @@
       <c r="E4">
         <v>10</v>
       </c>
+      <c r="G4" t="s">
+        <v>12</v>
+      </c>
       <c r="H4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E5">
         <v>500</v>
       </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C6" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D6" t="s">
         <v>11</v>
@@ -2290,21 +2352,24 @@
         <v>3</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="G6" t="s">
+        <v>12</v>
       </c>
       <c r="I6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D7" t="s">
         <v>11</v>
@@ -2312,10 +2377,26 @@
       <c r="E7">
         <v>1</v>
       </c>
-      <c r="F7">
-        <v>1</v>
+      <c r="F7"/>
+      <c r="G7" t="s">
+        <v>12</v>
       </c>
       <c r="I7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="7:7">
+      <c r="G8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="7:7">
+      <c r="G9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="7:7">
+      <c r="G10" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2328,20 +2409,23 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="17.1296296296296" customWidth="1"/>
     <col min="2" max="2" width="21.5" customWidth="1"/>
-    <col min="3" max="3" width="14.3796296296296" customWidth="1"/>
+    <col min="3" max="3" width="58" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="6" max="7" width="15.2222222222222" customWidth="1"/>
+    <col min="8" max="8" width="10.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2364,21 +2448,27 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D2" t="s">
         <v>11</v>
@@ -2390,18 +2480,21 @@
         <v>12</v>
       </c>
       <c r="I2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="K2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B3" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C3" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D3" t="s">
         <v>11</v>
@@ -2409,22 +2502,25 @@
       <c r="E3">
         <v>10</v>
       </c>
-      <c r="H3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
@@ -2432,22 +2528,25 @@
       <c r="E4">
         <v>10</v>
       </c>
-      <c r="H4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="G4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D5" t="s">
         <v>11</v>
@@ -2455,19 +2554,25 @@
       <c r="E5">
         <v>10</v>
       </c>
-      <c r="I5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B6" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C6" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D6" t="s">
         <v>11</v>
@@ -2475,36 +2580,80 @@
       <c r="E6">
         <v>2</v>
       </c>
-      <c r="I6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C7" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>61</v>
+      </c>
+      <c r="G7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B8" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C8" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D8" t="s">
-        <v>59</v>
+        <v>61</v>
+      </c>
+      <c r="G8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7">
+      <c r="B9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D9" t="str">
+        <f>LOWER("VARCHAR(64)")</f>
+        <v>varchar(64)</v>
+      </c>
+      <c r="E9">
+        <v>64</v>
+      </c>
+      <c r="G9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7">
+      <c r="B10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D10" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -2516,18 +2665,19 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="17.25" customWidth="1"/>
     <col min="3" max="3" width="15.3796296296296" customWidth="1"/>
     <col min="4" max="4" width="16.6296296296296" customWidth="1"/>
+    <col min="6" max="7" width="15.2222222222222" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -2561,13 +2711,13 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D2" t="s">
         <v>11</v>
@@ -2579,7 +2729,7 @@
         <v>12</v>
       </c>
       <c r="I2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -2598,42 +2748,48 @@
       <c r="E3">
         <v>10</v>
       </c>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
       <c r="H3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B4" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C4" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E4">
         <v>64</v>
       </c>
+      <c r="G4" t="s">
+        <v>12</v>
+      </c>
       <c r="I4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B5" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="C5" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="D5" t="s">
         <v>11</v>
@@ -2641,59 +2797,87 @@
       <c r="E5">
         <v>10</v>
       </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>12</v>
+      </c>
       <c r="I5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B6" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="C6" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="D6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E6">
         <v>256</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="C7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7" s="1">
         <v>1024</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="G7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B8" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="C8" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8" s="1">
         <v>1024</v>
+      </c>
+      <c r="G8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="7:7">
+      <c r="G9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="7:7">
+      <c r="G10" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -2705,10 +2889,403 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:I17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F$1:G$1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="13.6296296296296" customWidth="1"/>
+    <col min="2" max="2" width="16.8796296296296" customWidth="1"/>
+    <col min="3" max="3" width="21.3796296296296" customWidth="1"/>
+    <col min="6" max="7" width="15.2222222222222" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3">
+        <v>10</v>
+      </c>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1024</v>
+      </c>
+      <c r="G4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E5">
+        <v>32</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6">
+        <v>128</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>106</v>
+      </c>
+      <c r="B7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E7">
+        <v>512</v>
+      </c>
+      <c r="G7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" t="s">
+        <v>103</v>
+      </c>
+      <c r="E8">
+        <v>32</v>
+      </c>
+      <c r="G8" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E9">
+        <v>32</v>
+      </c>
+      <c r="G9" t="s">
+        <v>30</v>
+      </c>
+      <c r="I9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" t="s">
+        <v>103</v>
+      </c>
+      <c r="E10">
+        <v>32</v>
+      </c>
+      <c r="G10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" t="s">
+        <v>108</v>
+      </c>
+      <c r="E11">
+        <v>256</v>
+      </c>
+      <c r="I11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
+        <v>109</v>
+      </c>
+      <c r="B12" t="s">
+        <v>109</v>
+      </c>
+      <c r="C12" t="s">
+        <v>110</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12">
+        <v>10</v>
+      </c>
+      <c r="I12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
+        <v>111</v>
+      </c>
+      <c r="B13" t="s">
+        <v>111</v>
+      </c>
+      <c r="C13" t="s">
+        <v>112</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="I13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" t="s">
+        <v>113</v>
+      </c>
+      <c r="D14" t="s">
+        <v>53</v>
+      </c>
+      <c r="I14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" t="s">
+        <v>114</v>
+      </c>
+      <c r="D15" t="s">
+        <v>53</v>
+      </c>
+      <c r="I15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" t="s">
+        <v>115</v>
+      </c>
+      <c r="B16" t="s">
+        <v>115</v>
+      </c>
+      <c r="C16" t="s">
+        <v>116</v>
+      </c>
+      <c r="D16" t="s">
+        <v>61</v>
+      </c>
+      <c r="I16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" t="s">
+        <v>117</v>
+      </c>
+      <c r="B17" t="s">
+        <v>117</v>
+      </c>
+      <c r="C17" t="s">
+        <v>118</v>
+      </c>
+      <c r="D17" t="s">
+        <v>61</v>
+      </c>
+      <c r="I17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F$1:G$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -2718,7 +3295,7 @@
     <col min="3" max="3" width="25.3796296296296" customWidth="1"/>
     <col min="4" max="4" width="17.3796296296296" customWidth="1"/>
     <col min="5" max="5" width="23.3796296296296" customWidth="1"/>
-    <col min="6" max="6" width="14" customWidth="1"/>
+    <col min="6" max="7" width="15.2222222222222" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -2737,10 +3314,10 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
@@ -2752,13 +3329,13 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>11</v>
@@ -2766,87 +3343,95 @@
       <c r="E2" s="2">
         <v>10</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2" t="s">
+      <c r="F2"/>
+      <c r="G2" t="s">
         <v>12</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="2" t="s">
-        <v>91</v>
+        <v>119</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>91</v>
+        <v>119</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>92</v>
+        <v>120</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="E3" s="2">
         <v>32</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
+      <c r="F3"/>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>94</v>
+        <v>121</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E4" s="2">
         <v>15</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
+      <c r="F4"/>
+      <c r="G4" t="s">
+        <v>12</v>
+      </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>95</v>
+        <v>122</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5" s="3">
         <v>1024</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>12</v>
+      </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="2" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>97</v>
+        <v>123</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>11</v>
@@ -2854,41 +3439,47 @@
       <c r="E6" s="2">
         <v>10</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6" t="s">
+        <v>12</v>
+      </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="2" t="s">
-        <v>98</v>
+        <v>124</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>98</v>
+        <v>124</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>99</v>
+        <v>125</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>100</v>
+        <v>126</v>
       </c>
       <c r="E7" s="2">
         <v>2</v>
       </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
+      <c r="F7"/>
+      <c r="G7" t="s">
+        <v>12</v>
+      </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="2" t="s">
-        <v>101</v>
+        <v>127</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>101</v>
+        <v>127</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>102</v>
+        <v>128</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>11</v>
@@ -2896,41 +3487,45 @@
       <c r="E8" s="2">
         <v>3</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
+      <c r="F8"/>
+      <c r="G8" t="s">
+        <v>30</v>
+      </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="2" t="s">
-        <v>103</v>
+        <v>129</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>103</v>
+        <v>129</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>104</v>
+        <v>130</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9" s="2">
         <v>1024</v>
       </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
+      <c r="F9"/>
+      <c r="G9" t="s">
+        <v>30</v>
+      </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="2" t="s">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>106</v>
+        <v>132</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>11</v>
@@ -2938,22 +3533,24 @@
       <c r="E10" s="2">
         <v>2</v>
       </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
+      <c r="F10"/>
+      <c r="G10" t="s">
+        <v>12</v>
+      </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>107</v>
+        <v>133</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>11</v>
@@ -2961,412 +3558,50 @@
       <c r="E11" s="2">
         <v>2</v>
       </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
+      <c r="F11"/>
+      <c r="G11"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>108</v>
+        <v>134</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
+      <c r="F12"/>
+      <c r="G12"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>109</v>
+        <v>135</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
+      <c r="F13"/>
+      <c r="G13"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:I17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="13.6296296296296" customWidth="1"/>
-    <col min="2" max="2" width="16.8796296296296" customWidth="1"/>
-    <col min="3" max="3" width="21.3796296296296" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3">
-        <v>10</v>
-      </c>
-      <c r="H3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>112</v>
-      </c>
-      <c r="B4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C4" t="s">
-        <v>113</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" t="s">
-        <v>114</v>
-      </c>
-      <c r="B5" t="s">
-        <v>114</v>
-      </c>
-      <c r="C5" t="s">
-        <v>115</v>
-      </c>
-      <c r="D5" t="s">
-        <v>93</v>
-      </c>
-      <c r="E5">
-        <v>32</v>
-      </c>
-      <c r="I5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" t="s">
-        <v>116</v>
-      </c>
-      <c r="B6" t="s">
-        <v>116</v>
-      </c>
-      <c r="C6" t="s">
-        <v>117</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6">
-        <v>128</v>
-      </c>
-      <c r="I6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" t="s">
-        <v>118</v>
-      </c>
-      <c r="B7" t="s">
-        <v>118</v>
-      </c>
-      <c r="C7" t="s">
-        <v>119</v>
-      </c>
-      <c r="D7" t="s">
-        <v>65</v>
-      </c>
-      <c r="E7">
-        <v>512</v>
-      </c>
-      <c r="I7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" t="s">
-        <v>93</v>
-      </c>
-      <c r="E8">
-        <v>32</v>
-      </c>
-      <c r="I8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" t="s">
-        <v>93</v>
-      </c>
-      <c r="E9">
-        <v>32</v>
-      </c>
-      <c r="I9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" t="s">
-        <v>93</v>
-      </c>
-      <c r="E10">
-        <v>32</v>
-      </c>
-      <c r="I10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" t="s">
-        <v>120</v>
-      </c>
-      <c r="E11">
-        <v>256</v>
-      </c>
-      <c r="I11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" t="s">
-        <v>96</v>
-      </c>
-      <c r="B12" t="s">
-        <v>96</v>
-      </c>
-      <c r="C12" t="s">
-        <v>121</v>
-      </c>
-      <c r="D12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12">
-        <v>10</v>
-      </c>
-      <c r="I12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" t="s">
-        <v>122</v>
-      </c>
-      <c r="B13" t="s">
-        <v>122</v>
-      </c>
-      <c r="C13" t="s">
-        <v>123</v>
-      </c>
-      <c r="D13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
-      <c r="I13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" t="s">
-        <v>49</v>
-      </c>
-      <c r="B14" t="s">
-        <v>49</v>
-      </c>
-      <c r="C14" t="s">
-        <v>124</v>
-      </c>
-      <c r="D14" t="s">
-        <v>51</v>
-      </c>
-      <c r="I14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" t="s">
-        <v>52</v>
-      </c>
-      <c r="B15" t="s">
-        <v>52</v>
-      </c>
-      <c r="C15" t="s">
-        <v>125</v>
-      </c>
-      <c r="D15" t="s">
-        <v>51</v>
-      </c>
-      <c r="I15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" t="s">
-        <v>126</v>
-      </c>
-      <c r="B16" t="s">
-        <v>126</v>
-      </c>
-      <c r="C16" t="s">
-        <v>127</v>
-      </c>
-      <c r="D16" t="s">
-        <v>59</v>
-      </c>
-      <c r="I16" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" t="s">
-        <v>128</v>
-      </c>
-      <c r="B17" t="s">
-        <v>128</v>
-      </c>
-      <c r="C17" t="s">
-        <v>129</v>
-      </c>
-      <c r="D17" t="s">
-        <v>59</v>
-      </c>
-      <c r="I17" t="s">
-        <v>12</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -3377,10 +3612,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F$1:G$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -3390,6 +3625,7 @@
     <col min="3" max="3" width="21.25" customWidth="1"/>
     <col min="4" max="4" width="19.75" customWidth="1"/>
     <col min="5" max="5" width="15.1296296296296" customWidth="1"/>
+    <col min="6" max="7" width="15.2222222222222" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -3423,13 +3659,13 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B2" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="C2" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="D2" t="s">
         <v>11</v>
@@ -3441,18 +3677,18 @@
         <v>12</v>
       </c>
       <c r="I2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="B3" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="C3" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="D3" t="s">
         <v>11</v>
@@ -3460,22 +3696,25 @@
       <c r="E3">
         <v>10</v>
       </c>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
       <c r="H3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
@@ -3483,22 +3722,25 @@
       <c r="E4">
         <v>10</v>
       </c>
+      <c r="G4" t="s">
+        <v>12</v>
+      </c>
       <c r="H4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="B5" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="C5" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="D5" t="s">
         <v>11</v>
@@ -3506,19 +3748,25 @@
       <c r="E5">
         <v>2</v>
       </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>12</v>
+      </c>
       <c r="I5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="B6" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="C6" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="D6" t="s">
         <v>11</v>
@@ -3526,16 +3774,22 @@
       <c r="E6">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="B7" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="C7" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="D7" t="s">
         <v>11</v>
@@ -3543,16 +3797,19 @@
       <c r="E7">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="G7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="B8" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="C8" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="D8" t="s">
         <v>11</v>
@@ -3560,22 +3817,33 @@
       <c r="E8">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="G8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="B9" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="C9" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="D9" t="s">
         <v>11</v>
       </c>
       <c r="E9">
         <v>10</v>
+      </c>
+      <c r="G9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="7:7">
+      <c r="G10" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -3587,16 +3855,17 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="F1" sqref="F$1:G$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="4" max="4" width="17.75" customWidth="1"/>
     <col min="5" max="5" width="18.75" customWidth="1"/>
+    <col min="6" max="7" width="15.2222222222222" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -3630,10 +3899,10 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="B2" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="D2" t="s">
         <v>11</v>
@@ -3645,18 +3914,18 @@
         <v>12</v>
       </c>
       <c r="I2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="B3" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
         <v>11</v>
@@ -3664,39 +3933,79 @@
       <c r="E3">
         <v>10</v>
       </c>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
       <c r="H3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="B4" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4" s="1">
         <v>1024</v>
       </c>
+      <c r="G4" t="s">
+        <v>12</v>
+      </c>
       <c r="I4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D5" t="s">
-        <v>59</v>
+        <v>61</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="6:7">
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="7:7">
+      <c r="G7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="7:7">
+      <c r="G8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="7:7">
+      <c r="G9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="7:7">
+      <c r="G10" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -3708,21 +4017,20 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:I7"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="15.5" customWidth="1"/>
     <col min="2" max="2" width="19.1296296296296" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
     <col min="4" max="4" width="18.3796296296296" customWidth="1"/>
     <col min="5" max="5" width="14.75" customWidth="1"/>
-    <col min="6" max="6" width="12.25" customWidth="1"/>
-    <col min="7" max="7" width="10.5" customWidth="1"/>
+    <col min="6" max="7" width="15.2222222222222" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -3756,10 +4064,10 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="B2" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="D2" t="s">
         <v>11</v>
@@ -3771,18 +4079,18 @@
         <v>12</v>
       </c>
       <c r="I2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="B3" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
         <v>11</v>
@@ -3790,67 +4098,103 @@
       <c r="E3">
         <v>10</v>
       </c>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
       <c r="H3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>91</v>
+        <v>119</v>
       </c>
       <c r="B4" t="s">
-        <v>91</v>
+        <v>119</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>128</v>
       </c>
+      <c r="G4" t="s">
+        <v>12</v>
+      </c>
       <c r="I4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="B5" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>128</v>
       </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>12</v>
+      </c>
       <c r="I5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>61</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D7" t="s">
-        <v>59</v>
+        <v>61</v>
+      </c>
+      <c r="G7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="7:7">
+      <c r="G8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="7:7">
+      <c r="G9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="7:7">
+      <c r="G10" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
